--- a/nr-rm-extension-nationality/ig/StructureDefinition-as-practitioner.xlsx
+++ b/nr-rm-extension-nationality/ig/StructureDefinition-as-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T12:07:38+00:00</t>
+    <t>2025-10-08T12:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil générique créé à partir de FrPractitioner dans le contexte de l'Annuaire Santé pour décrire les données d'identification pérennes d’une personne physique, qui travaille en tant que professionnel (professionnel enregistré dans RPPS), personnel autorisé ou personnel d’établissement, dans les domaines sanitaire, médico-social et social.</t>
+    <t>Profil générique créé à partir de FrPractitioner dans le contexte de l'Annuaire Santé pour décrire les données liées à l'exercice professionnel d'un professionnel (professions à ordre, professions sans ordre, professionnels à rôle).</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1861,7 +1861,7 @@
   </si>
   <si>
     <t>Cette ressource est-elle active?
-true  par défaut; false pour  indiquer que la ressource a été supprimés</t>
+true  par défaut; false pour indiquer que la ressource a été supprimée</t>
   </si>
   <si>
     <t>Whether this practitioner's record is in active use.</t>
@@ -4437,7 +4437,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>132</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>221</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>320</v>
       </c>
@@ -15423,7 +15423,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>367</v>
       </c>
@@ -19308,7 +19308,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="118" hidden="true">
+    <row r="118">
       <c r="A118" t="s" s="2">
         <v>412</v>
       </c>
@@ -22284,7 +22284,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="140" hidden="true">
+    <row r="140">
       <c r="A140" t="s" s="2">
         <v>545</v>
       </c>
@@ -23503,7 +23503,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="149" hidden="true">
+    <row r="149">
       <c r="A149" t="s" s="2">
         <v>564</v>
       </c>
@@ -25941,7 +25941,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="167" hidden="true">
+    <row r="167">
       <c r="A167" t="s" s="2">
         <v>592</v>
       </c>
@@ -26080,7 +26080,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="168" hidden="true">
+    <row r="168">
       <c r="A168" t="s" s="2">
         <v>600</v>
       </c>
@@ -26892,7 +26892,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="174" hidden="true">
+    <row r="174">
       <c r="A174" t="s" s="2">
         <v>634</v>
       </c>
@@ -27027,7 +27027,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="175" hidden="true">
+    <row r="175">
       <c r="A175" t="s" s="2">
         <v>644</v>
       </c>
@@ -27295,7 +27295,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="177" hidden="true">
+    <row r="177">
       <c r="A177" t="s" s="2">
         <v>663</v>
       </c>
@@ -35333,7 +35333,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="237" hidden="true">
+    <row r="237">
       <c r="A237" t="s" s="2">
         <v>816</v>
       </c>
@@ -35875,7 +35875,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="241" hidden="true">
+    <row r="241">
       <c r="A241" t="s" s="2">
         <v>821</v>
       </c>
@@ -37888,7 +37888,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="256" hidden="true">
+    <row r="256">
       <c r="A256" t="s" s="2">
         <v>899</v>
       </c>
@@ -41368,7 +41368,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="282" hidden="true">
+    <row r="282">
       <c r="A282" t="s" s="2">
         <v>951</v>
       </c>
@@ -41505,7 +41505,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="283" hidden="true">
+    <row r="283">
       <c r="A283" t="s" s="2">
         <v>954</v>
       </c>
@@ -43798,7 +43798,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="300" hidden="true">
+    <row r="300">
       <c r="A300" t="s" s="2">
         <v>987</v>
       </c>
@@ -43935,7 +43935,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="301" hidden="true">
+    <row r="301">
       <c r="A301" t="s" s="2">
         <v>992</v>
       </c>
@@ -44209,7 +44209,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="303" hidden="true">
+    <row r="303">
       <c r="A303" t="s" s="2">
         <v>996</v>
       </c>
@@ -46228,7 +46228,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="318" hidden="true">
+    <row r="318">
       <c r="A318" t="s" s="2">
         <v>1018</v>
       </c>
@@ -46365,7 +46365,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="319" hidden="true">
+    <row r="319">
       <c r="A319" t="s" s="2">
         <v>1023</v>
       </c>
@@ -47447,7 +47447,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="327" hidden="true">
+    <row r="327">
       <c r="A327" t="s" s="2">
         <v>1037</v>
       </c>
@@ -47584,12 +47584,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AU327">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
